--- a/users.xlsx
+++ b/users.xlsx
@@ -1,40 +1,449 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="19200" windowHeight="6900"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AD Users" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="AD Users" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>OU</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Santhosh</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>santhosh.r</t>
+  </si>
+  <si>
+    <t>OU=2D,OU=Spectrepost Users,DC=saravana,DC=com</t>
+  </si>
+  <si>
+    <t>D3skt0p123</t>
+  </si>
+  <si>
+    <t>santhosh.r@saravana.com</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>saravana</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>saravana.r</t>
+  </si>
+  <si>
+    <t>D3skt0p@123</t>
+  </si>
+  <si>
+    <t>saravana.r@saravana.com</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -42,85 +451,313 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -403,99 +1040,104 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="G3 C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="11.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="10.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="44.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="11.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="26.5714285714286" customWidth="1"/>
+    <col min="7" max="7" width="12.5714285714286" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>First Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Last Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Username</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>OU</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Password</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Department</t>
-        </is>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Santhosh</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>santhosh.r</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>OU=Spectrepost Users,DC=saravana,DC=com</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>D3skt0p123</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>santhosh.r@saravana.com</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Production</t>
-        </is>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" display="D3skt0p@123"/>
+    <hyperlink ref="F3" r:id="rId2" display="saravana.r@saravana.com"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/users.xlsx
+++ b/users.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6900"/>
+    <workbookView windowWidth="19200" windowHeight="6800"/>
   </bookViews>
   <sheets>
     <sheet name="AD Users" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>First Name</t>
   </si>
@@ -84,6 +84,15 @@
   </si>
   <si>
     <t>saravana.r@saravana.com</t>
+  </si>
+  <si>
+    <t>sarvn</t>
+  </si>
+  <si>
+    <t>sarvn.r</t>
+  </si>
+  <si>
+    <t>sarvn.r@saravana.com</t>
   </si>
 </sst>
 </file>
@@ -697,8 +706,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1046,21 +1056,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="G3 C10"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="11.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="10.8571428571429" customWidth="1"/>
+    <col min="1" max="1" width="11.2818181818182" customWidth="1"/>
+    <col min="2" max="2" width="10.8545454545455" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="44.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="11.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="26.5714285714286" customWidth="1"/>
-    <col min="7" max="7" width="12.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="44.4272727272727" customWidth="1"/>
+    <col min="5" max="5" width="11.7181818181818" customWidth="1"/>
+    <col min="6" max="6" width="26.5727272727273" customWidth="1"/>
+    <col min="7" max="7" width="12.5727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1132,10 +1142,35 @@
         <v>13</v>
       </c>
     </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" display="D3skt0p@123"/>
     <hyperlink ref="F3" r:id="rId2" display="saravana.r@saravana.com"/>
+    <hyperlink ref="E4" r:id="rId1" display="D3skt0p@123"/>
+    <hyperlink ref="F4" r:id="rId3" display="sarvn.r@saravana.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/users.xlsx
+++ b/users.xlsx
@@ -86,13 +86,13 @@
     <t>saravana.r@saravana.com</t>
   </si>
   <si>
-    <t>sarvn</t>
-  </si>
-  <si>
-    <t>sarvn.r</t>
-  </si>
-  <si>
-    <t>sarvn.r@saravana.com</t>
+    <t>saravanakumar</t>
+  </si>
+  <si>
+    <t>saravanakumar.r</t>
+  </si>
+  <si>
+    <t>saravanakumar.r@saravana.com</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1059,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A4" sqref="A4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1169,8 +1169,6 @@
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" display="D3skt0p@123"/>
     <hyperlink ref="F3" r:id="rId2" display="saravana.r@saravana.com"/>
-    <hyperlink ref="E4" r:id="rId1" display="D3skt0p@123"/>
-    <hyperlink ref="F4" r:id="rId3" display="sarvn.r@saravana.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/users.xlsx
+++ b/users.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18840" windowHeight="6825"/>
+    <workbookView windowWidth="19200" windowHeight="6900"/>
   </bookViews>
   <sheets>
     <sheet name="AD Users" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="40">
   <si>
     <t>First Name</t>
   </si>
@@ -123,6 +123,30 @@
   </si>
   <si>
     <t>sarvn@saravana.com</t>
+  </si>
+  <si>
+    <t>sarath</t>
+  </si>
+  <si>
+    <t>sarath@saravana.com</t>
+  </si>
+  <si>
+    <t>santhu</t>
+  </si>
+  <si>
+    <t>santhu.r</t>
+  </si>
+  <si>
+    <t>santhu.r@saravana.com</t>
+  </si>
+  <si>
+    <t>sdasdd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sdasdd r</t>
+  </si>
+  <si>
+    <t>dwder</t>
   </si>
 </sst>
 </file>
@@ -736,11 +760,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1087,13 +1110,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D10" sqref="G11 D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="15.0952380952381" customWidth="1"/>
     <col min="2" max="2" width="10.8571428571429" customWidth="1"/>
@@ -1212,7 +1235,7 @@
       <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G5" t="s">
@@ -1235,7 +1258,7 @@
       <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G6" t="s">
@@ -1258,10 +1281,102 @@
       <c r="E7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1271,6 +1386,10 @@
     <hyperlink ref="F5" r:id="rId2" display="geetha.r@spectrepost.com"/>
     <hyperlink ref="F6" r:id="rId3" display="keertahana.r@saravana.com"/>
     <hyperlink ref="F7" r:id="rId4" display="sarvn@saravana.com"/>
+    <hyperlink ref="F8" r:id="rId5" display="sarath@saravana.com"/>
+    <hyperlink ref="F9" r:id="rId6" display="santhu.r@saravana.com"/>
+    <hyperlink ref="F10" r:id="rId6" display="santhu.r@saravana.com"/>
+    <hyperlink ref="F11" r:id="rId6" display="santhu.r@saravana.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/users.xlsx
+++ b/users.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800"/>
+    <workbookView windowWidth="18840" windowHeight="5070"/>
   </bookViews>
   <sheets>
     <sheet name="AD Users" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="44">
   <si>
     <t>Firstname</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>were</t>
+  </si>
+  <si>
+    <t>manju</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
 </sst>
 </file>
@@ -766,11 +772,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1117,21 +1122,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D11" sqref="G14 D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="15.0909090909091" customWidth="1"/>
-    <col min="2" max="2" width="10.8545454545455" customWidth="1"/>
-    <col min="3" max="3" width="16.4545454545455" customWidth="1"/>
-    <col min="4" max="4" width="44.4272727272727" customWidth="1"/>
-    <col min="5" max="5" width="11.7181818181818" customWidth="1"/>
-    <col min="6" max="6" width="26.5727272727273" customWidth="1"/>
-    <col min="7" max="7" width="12.5727272727273" customWidth="1"/>
+    <col min="1" max="1" width="15.0952380952381" customWidth="1"/>
+    <col min="2" max="2" width="10.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="16.4571428571429" customWidth="1"/>
+    <col min="4" max="4" width="44.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="11.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="26.5714285714286" customWidth="1"/>
+    <col min="7" max="7" width="12.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1397,7 +1402,7 @@
       <c r="E12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G12" t="s">
@@ -1420,8 +1425,28 @@
       <c r="E13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="1"/>
       <c r="G13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
         <v>13</v>
       </c>
     </row>

--- a/users.xlsx
+++ b/users.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="47">
   <si>
     <t>Firstname</t>
   </si>
@@ -159,6 +159,15 @@
   </si>
   <si>
     <t>m</t>
+  </si>
+  <si>
+    <t>vicky</t>
+  </si>
+  <si>
+    <t>sdfsd</t>
+  </si>
+  <si>
+    <t>fire</t>
   </si>
 </sst>
 </file>
@@ -1122,10 +1131,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D11" sqref="G14 D11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1450,6 +1459,57 @@
         <v>13</v>
       </c>
     </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" display="ramesh.k@spectrepost.com"/>

--- a/users.xlsx
+++ b/users.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Firstname</t>
   </si>
@@ -86,88 +86,16 @@
     <t>saravanakumar.r@saravana.com</t>
   </si>
   <si>
-    <t>ramesh</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>ramesh.k</t>
-  </si>
-  <si>
-    <t>ramesh.k@spectrepost.com</t>
-  </si>
-  <si>
-    <t>geetha</t>
-  </si>
-  <si>
-    <t>geetha.r</t>
+    <t>Nikhil</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
   <si>
     <t>OU=3D,OU=Spectrepost Users,DC=saravana,DC=com</t>
   </si>
   <si>
-    <t>geetha.r@spectrepost.com</t>
-  </si>
-  <si>
-    <t>keerthana</t>
-  </si>
-  <si>
-    <t>keerthana.5</t>
-  </si>
-  <si>
-    <t>keertahana.r@saravana.com</t>
-  </si>
-  <si>
-    <t>sarvn</t>
-  </si>
-  <si>
-    <t>sarvn@saravana.com</t>
-  </si>
-  <si>
-    <t>sarath</t>
-  </si>
-  <si>
-    <t>sarath@saravana.com</t>
-  </si>
-  <si>
-    <t>santhu</t>
-  </si>
-  <si>
-    <t>santhu.r</t>
-  </si>
-  <si>
-    <t>king</t>
-  </si>
-  <si>
-    <t>dwder</t>
-  </si>
-  <si>
-    <t>saravanan</t>
-  </si>
-  <si>
-    <t>saravanan.r</t>
-  </si>
-  <si>
-    <t>saravanan@saravana.com</t>
-  </si>
-  <si>
-    <t>were</t>
-  </si>
-  <si>
-    <t>manju</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>vicky</t>
-  </si>
-  <si>
-    <t>sdfsd</t>
-  </si>
-  <si>
-    <t>fire</t>
+    <t>N!kh!l@12345</t>
   </si>
 </sst>
 </file>
@@ -781,10 +709,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1131,19 +1058,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="15.0952380952381" customWidth="1"/>
     <col min="2" max="2" width="10.8571428571429" customWidth="1"/>
     <col min="3" max="3" width="16.4571428571429" customWidth="1"/>
     <col min="4" max="4" width="44.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="11.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="13.8571428571429" customWidth="1"/>
     <col min="6" max="6" width="26.5714285714286" customWidth="1"/>
     <col min="7" max="7" width="12.5714285714286" customWidth="1"/>
   </cols>
@@ -1217,7 +1144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1225,300 +1152,16 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" t="s">
         <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" display="ramesh.k@spectrepost.com"/>
-    <hyperlink ref="F5" r:id="rId2" display="geetha.r@spectrepost.com"/>
-    <hyperlink ref="F6" r:id="rId3" display="keertahana.r@saravana.com"/>
-    <hyperlink ref="F7" r:id="rId4" display="sarvn@saravana.com"/>
-    <hyperlink ref="F8" r:id="rId5" display="sarath@saravana.com"/>
-    <hyperlink ref="F12" r:id="rId6" display="saravanan@saravana.com"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/users.xlsx
+++ b/users.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18840" windowHeight="5070"/>
+    <workbookView windowWidth="18600" windowHeight="4485"/>
   </bookViews>
   <sheets>
     <sheet name="AD Users" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Firstname</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>N!kh!l@12345</t>
+  </si>
+  <si>
+    <t>dhanush</t>
+  </si>
+  <si>
+    <t>k</t>
   </si>
 </sst>
 </file>
@@ -709,9 +715,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1058,13 +1065,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="15.0952380952381" customWidth="1"/>
     <col min="2" max="2" width="10.8571428571429" customWidth="1"/>
@@ -1161,7 +1168,27 @@
         <v>22</v>
       </c>
     </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1" display="D3skt0p@123"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/users.xlsx
+++ b/users.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Firstname</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>k</t>
+  </si>
+  <si>
+    <t>karthick</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -718,7 +724,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1065,13 +1071,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="15.0952380952381" customWidth="1"/>
     <col min="2" max="2" width="10.8571428571429" customWidth="1"/>
@@ -1185,9 +1191,27 @@
         <v>17</v>
       </c>
     </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" display="D3skt0p@123"/>
+    <hyperlink ref="E6" r:id="rId1" display="D3skt0p@123"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/users.xlsx
+++ b/users.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="4485"/>
+    <workbookView windowWidth="19080" windowHeight="5655"/>
   </bookViews>
   <sheets>
     <sheet name="AD Users" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
     <t>ramesh.k@spectrepost.com</t>
   </si>
   <si>
-    <t>Delete</t>
+    <t>Disable</t>
   </si>
   <si>
     <t>geetha</t>
@@ -1143,7 +1143,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1303,7 +1303,7 @@
       <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G6" t="s">

--- a/users.xlsx
+++ b/users.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19080" windowHeight="5655"/>
+    <workbookView windowWidth="19320" windowHeight="6240"/>
   </bookViews>
   <sheets>
     <sheet name="AD Users" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="51">
   <si>
     <t>Firstname</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>saravanan@saravana.com</t>
+  </si>
+  <si>
+    <t>Delete</t>
   </si>
   <si>
     <t>were</t>
@@ -1143,7 +1146,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1456,20 +1459,22 @@
       <c r="F12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="H12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
         <v>28</v>
@@ -1485,13 +1490,13 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
         <v>46</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
       </c>
       <c r="D14" t="s">
         <v>28</v>
@@ -1505,13 +1510,13 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
         <v>28</v>
@@ -1525,13 +1530,13 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
         <v>28</v>
@@ -1545,13 +1550,13 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
         <v>28</v>

--- a/users.xlsx
+++ b/users.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19320" windowHeight="6240"/>
+    <workbookView windowWidth="19200" windowHeight="6900"/>
   </bookViews>
   <sheets>
     <sheet name="AD Users" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="51">
   <si>
     <t>Firstname</t>
   </si>
@@ -119,6 +119,9 @@
     <t>geetha.r@spectrepost.com</t>
   </si>
   <si>
+    <t>Delete</t>
+  </si>
+  <si>
     <t>keerthana</t>
   </si>
   <si>
@@ -159,9 +162,6 @@
   </si>
   <si>
     <t>saravanan@saravana.com</t>
-  </si>
-  <si>
-    <t>Delete</t>
   </si>
   <si>
     <t>were</t>
@@ -1146,7 +1146,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1283,8 +1283,8 @@
       <c r="F5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G5" t="s">
-        <v>14</v>
+      <c r="G5" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -1292,13 +1292,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
@@ -1307,10 +1307,10 @@
         <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
+        <v>33</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -1318,13 +1318,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
@@ -1333,7 +1333,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
@@ -1344,13 +1344,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
@@ -1359,10 +1359,10 @@
         <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -1370,13 +1370,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
@@ -1385,8 +1385,8 @@
         <v>19</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" t="s">
-        <v>14</v>
+      <c r="G9" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
@@ -1394,13 +1394,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
@@ -1418,13 +1418,13 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
         <v>28</v>
@@ -1442,13 +1442,13 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
         <v>28</v>
@@ -1457,10 +1457,10 @@
         <v>19</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
@@ -1483,7 +1483,9 @@
         <v>19</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="H13" t="s">
         <v>15</v>
       </c>
@@ -1544,6 +1546,9 @@
       <c r="E16" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="G16" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="H16" t="s">
         <v>15</v>
       </c>
@@ -1563,6 +1568,9 @@
       </c>
       <c r="E17" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>

--- a/users.xlsx
+++ b/users.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="51">
   <si>
     <t>Firstname</t>
   </si>
@@ -1146,7 +1146,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F16" sqref="G14 F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1506,6 +1506,9 @@
       <c r="E14" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="G14" t="s">
+        <v>25</v>
+      </c>
       <c r="H14" t="s">
         <v>15</v>
       </c>

--- a/users.xlsx
+++ b/users.xlsx
@@ -1146,7 +1146,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F16" sqref="G14 F16"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1154,7 +1154,7 @@
     <col min="1" max="1" width="15.0952380952381" customWidth="1"/>
     <col min="2" max="2" width="10.8571428571429" customWidth="1"/>
     <col min="3" max="3" width="16.4571428571429" customWidth="1"/>
-    <col min="4" max="4" width="44.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="51.7142857142857" customWidth="1"/>
     <col min="5" max="5" width="13.8571428571429" customWidth="1"/>
     <col min="6" max="7" width="26.5714285714286" customWidth="1"/>
     <col min="8" max="8" width="12.5714285714286" customWidth="1"/>
@@ -1336,7 +1336,7 @@
         <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -1358,7 +1358,7 @@
       <c r="E8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G8" t="s">

--- a/users.xlsx
+++ b/users.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6900"/>
+    <workbookView windowWidth="18840" windowHeight="5070"/>
   </bookViews>
   <sheets>
     <sheet name="AD Users" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="43">
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Lastname</t>
   </si>
   <si>
     <t>Username</t>
@@ -144,6 +144,18 @@
   </si>
   <si>
     <t>dwder</t>
+  </si>
+  <si>
+    <t>saravanan</t>
+  </si>
+  <si>
+    <t>saravanan.r</t>
+  </si>
+  <si>
+    <t>saravanan@saravana.com</t>
+  </si>
+  <si>
+    <t>were</t>
   </si>
 </sst>
 </file>
@@ -757,10 +769,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1107,10 +1120,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1371,6 +1384,49 @@
         <v>13</v>
       </c>
     </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" display="ramesh.k@spectrepost.com"/>
@@ -1378,6 +1434,7 @@
     <hyperlink ref="F6" r:id="rId3" display="keertahana.r@saravana.com"/>
     <hyperlink ref="F7" r:id="rId4" display="sarvn@saravana.com"/>
     <hyperlink ref="F8" r:id="rId5" display="sarath@saravana.com"/>
+    <hyperlink ref="F12" r:id="rId6" display="saravanan@saravana.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/users.xlsx
+++ b/users.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18840" windowHeight="5070"/>
+    <workbookView windowWidth="19200" windowHeight="6320"/>
   </bookViews>
   <sheets>
     <sheet name="AD Users" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="44">
   <si>
     <t>Firstname</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>were</t>
+  </si>
+  <si>
+    <t>check</t>
   </si>
 </sst>
 </file>
@@ -769,11 +772,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1120,21 +1122,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="15.0952380952381" customWidth="1"/>
-    <col min="2" max="2" width="10.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="16.4571428571429" customWidth="1"/>
-    <col min="4" max="4" width="44.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="11.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="26.5714285714286" customWidth="1"/>
-    <col min="7" max="7" width="12.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="15.0909090909091" customWidth="1"/>
+    <col min="2" max="2" width="10.8545454545455" customWidth="1"/>
+    <col min="3" max="3" width="16.4545454545455" customWidth="1"/>
+    <col min="4" max="4" width="44.4272727272727" customWidth="1"/>
+    <col min="5" max="5" width="11.7181818181818" customWidth="1"/>
+    <col min="6" max="6" width="26.5727272727273" customWidth="1"/>
+    <col min="7" max="7" width="12.5727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1400,7 +1402,7 @@
       <c r="E12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G12" t="s">
@@ -1424,6 +1426,26 @@
         <v>17</v>
       </c>
       <c r="G13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
         <v>13</v>
       </c>
     </row>

--- a/users.xlsx
+++ b/users.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="46">
   <si>
     <t>Firstname</t>
   </si>
@@ -47,6 +47,9 @@
     <t>Email</t>
   </si>
   <si>
+    <t>Action</t>
+  </si>
+  <si>
     <t>Department</t>
   </si>
   <si>
@@ -159,6 +162,9 @@
   </si>
   <si>
     <t>check</t>
+  </si>
+  <si>
+    <t>create</t>
   </si>
 </sst>
 </file>
@@ -1122,24 +1128,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="15.0909090909091" customWidth="1"/>
     <col min="2" max="2" width="10.8545454545455" customWidth="1"/>
     <col min="3" max="3" width="16.4545454545455" customWidth="1"/>
     <col min="4" max="4" width="44.4272727272727" customWidth="1"/>
     <col min="5" max="5" width="11.7181818181818" customWidth="1"/>
-    <col min="6" max="6" width="26.5727272727273" customWidth="1"/>
-    <col min="7" max="7" width="12.5727272727273" customWidth="1"/>
+    <col min="6" max="7" width="26.5727272727273" customWidth="1"/>
+    <col min="8" max="8" width="12.5727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1161,292 +1167,308 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
-        <v>13</v>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="G5" t="s">
-        <v>13</v>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" t="s">
-        <v>13</v>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" t="s">
-        <v>13</v>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" t="s">
-        <v>13</v>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
